--- a/output/df_stats.xlsx
+++ b/output/df_stats.xlsx
@@ -552,76 +552,76 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="C2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="D2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="E2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="F2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="G2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="H2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="I2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="J2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="K2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="L2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="M2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="N2">
-        <v>398748</v>
+        <v>2006719</v>
       </c>
       <c r="O2">
-        <v>418764</v>
+        <v>2108624</v>
       </c>
       <c r="P2">
-        <v>370711</v>
+        <v>1893891</v>
       </c>
       <c r="Q2">
-        <v>398801</v>
+        <v>2007011</v>
       </c>
       <c r="R2">
-        <v>415168</v>
+        <v>2046068</v>
       </c>
       <c r="S2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="T2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="U2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="V2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="W2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
       <c r="X2">
-        <v>520522</v>
+        <v>1971468</v>
       </c>
       <c r="Y2">
-        <v>998407</v>
+        <v>3697741</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -629,76 +629,76 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>45.89683265441849</v>
+        <v>42.12352325379198</v>
       </c>
       <c r="C3">
-        <v>0.073025329349654</v>
+        <v>0.06791011052423629</v>
       </c>
       <c r="D3">
-        <v>108.3404152815435</v>
+        <v>101.5599737785854</v>
       </c>
       <c r="E3">
-        <v>37.29209931420753</v>
+        <v>36.95486244169075</v>
       </c>
       <c r="F3">
-        <v>0.9058199712141441</v>
+        <v>0.8677592616681374</v>
       </c>
       <c r="G3">
-        <v>0.476272702414947</v>
+        <v>0.45317289664149</v>
       </c>
       <c r="H3">
-        <v>4.888107755654758</v>
+        <v>4.762856295235388</v>
       </c>
       <c r="I3">
-        <v>0.01680677318969118</v>
+        <v>0.01776490024585281</v>
       </c>
       <c r="J3">
-        <v>0.1494220292926632</v>
+        <v>0.1479652036202644</v>
       </c>
       <c r="K3">
-        <v>5.068374921249551</v>
+        <v>4.917523969363998</v>
       </c>
       <c r="L3">
-        <v>0.2801092139778668</v>
+        <v>0.2897752979454213</v>
       </c>
       <c r="M3">
-        <v>0.8609134351021177</v>
+        <v>0.8683128428951622</v>
       </c>
       <c r="N3">
-        <v>1960.81693701285</v>
+        <v>1753.118588103267</v>
       </c>
       <c r="O3">
-        <v>2.571699095433227</v>
+        <v>3.239970710757347</v>
       </c>
       <c r="P3">
-        <v>2111.956513294723</v>
+        <v>1861.102774130085</v>
       </c>
       <c r="Q3">
-        <v>7.222404156458985</v>
+        <v>6.517182516687751</v>
       </c>
       <c r="R3">
-        <v>5557.987536250338</v>
+        <v>5837.516965801625</v>
       </c>
       <c r="S3">
-        <v>1405.512707644086</v>
+        <v>1396.874250892679</v>
       </c>
       <c r="T3">
-        <v>111.6231478184653</v>
+        <v>110.0724153732055</v>
       </c>
       <c r="U3">
-        <v>285.4315670431639</v>
+        <v>276.4899974074791</v>
       </c>
       <c r="V3">
-        <v>494.952499331435</v>
+        <v>374.2068481810922</v>
       </c>
       <c r="W3">
-        <v>49780.34955383927</v>
+        <v>42519.16063618301</v>
       </c>
       <c r="X3">
-        <v>7.865938423351943</v>
+        <v>7.25334928084047</v>
       </c>
       <c r="Y3">
-        <v>6739.124698644941</v>
+        <v>6286.476038749063</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -706,76 +706,76 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>72.17779513967925</v>
+        <v>69.06002485040131</v>
       </c>
       <c r="C4">
-        <v>0.7081271765484098</v>
+        <v>0.6657855778132031</v>
       </c>
       <c r="D4">
-        <v>2997.690259156398</v>
+        <v>3474.918855633398</v>
       </c>
       <c r="E4">
-        <v>741.8592738525057</v>
+        <v>645.323626498051</v>
       </c>
       <c r="F4">
-        <v>24.724294442299</v>
+        <v>27.1161869328766</v>
       </c>
       <c r="G4">
-        <v>16.43250818426639</v>
+        <v>17.99165712252638</v>
       </c>
       <c r="H4">
-        <v>23.26064724088568</v>
+        <v>25.5705548880579</v>
       </c>
       <c r="I4">
-        <v>1.799821524011593</v>
+        <v>1.823054178801008</v>
       </c>
       <c r="J4">
-        <v>6.872220829622377</v>
+        <v>7.28712935832677</v>
       </c>
       <c r="K4">
-        <v>35.8750167824218</v>
+        <v>39.33891574916003</v>
       </c>
       <c r="L4">
-        <v>7.061643045281038</v>
+        <v>7.047756013246677</v>
       </c>
       <c r="M4">
-        <v>9.773542706192769</v>
+        <v>14.47529670018885</v>
       </c>
       <c r="N4">
-        <v>15357.76787738811</v>
+        <v>14053.52603857999</v>
       </c>
       <c r="O4">
-        <v>38.39159097457784</v>
+        <v>44.40849750488123</v>
       </c>
       <c r="P4">
-        <v>15918.134839525</v>
+        <v>14459.48107824954</v>
       </c>
       <c r="Q4">
-        <v>45.34910452270087</v>
+        <v>44.48124698773272</v>
       </c>
       <c r="R4">
-        <v>1117426.397999883</v>
+        <v>1134561.21468003</v>
       </c>
       <c r="S4">
-        <v>1391.251084579925</v>
+        <v>1561.396076793951</v>
       </c>
       <c r="T4">
-        <v>102.8190558473702</v>
+        <v>106.3618767182088</v>
       </c>
       <c r="U4">
-        <v>400.8176634221791</v>
+        <v>449.6556573088581</v>
       </c>
       <c r="V4">
-        <v>2661.928492916597</v>
+        <v>2073.267204333347</v>
       </c>
       <c r="W4">
-        <v>92303.66506685469</v>
+        <v>87651.46266131186</v>
       </c>
       <c r="X4">
-        <v>45.94144654851112</v>
+        <v>36.62604778237103</v>
       </c>
       <c r="Y4">
-        <v>15552.75794634011</v>
+        <v>14990.07095897607</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -896,40 +896,40 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="S6">
-        <v>633.457036825578</v>
+        <v>637.055837563452</v>
       </c>
       <c r="T6">
-        <v>29.3237582286056</v>
+        <v>29.82197528064411</v>
       </c>
       <c r="U6">
-        <v>94.79897564836351</v>
+        <v>92.1876716844303</v>
       </c>
       <c r="V6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W6">
-        <v>2195</v>
+        <v>1854</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -937,7 +937,7 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -973,40 +973,40 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>15.63</v>
+        <v>15.7</v>
       </c>
       <c r="S7">
-        <v>1250.42111173498</v>
+        <v>1225.48613984278</v>
       </c>
       <c r="T7">
-        <v>97.5232198142415</v>
+        <v>92.69662921348309</v>
       </c>
       <c r="U7">
-        <v>213.150289017341</v>
+        <v>203.094777562863</v>
       </c>
       <c r="V7">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W7">
-        <v>9050</v>
+        <v>6615</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y7">
-        <v>2284</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1014,16 +1014,16 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1050,40 +1050,40 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1186</v>
+        <v>1068</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1288</v>
+        <v>1163</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
-        <v>64.17</v>
+        <v>59.61999999999993</v>
       </c>
       <c r="S8">
-        <v>2146.6477735937</v>
+        <v>2140.35691162188</v>
       </c>
       <c r="T8">
-        <v>185.263269789526</v>
+        <v>183.78836189717</v>
       </c>
       <c r="U8">
-        <v>518.8574813336966</v>
+        <v>476.457399103139</v>
       </c>
       <c r="V8">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="W8">
-        <v>55789</v>
+        <v>52696</v>
       </c>
       <c r="X8">
         <v>6</v>
       </c>
       <c r="Y8">
-        <v>8827</v>
+        <v>7536</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1097,58 +1097,58 @@
         <v>129</v>
       </c>
       <c r="D9">
-        <v>1656517</v>
+        <v>5278263</v>
       </c>
       <c r="E9">
-        <v>287263</v>
+        <v>393495</v>
       </c>
       <c r="F9">
-        <v>8248</v>
+        <v>24440</v>
       </c>
       <c r="G9">
-        <v>6396</v>
+        <v>8993</v>
       </c>
       <c r="H9">
-        <v>4003</v>
+        <v>20925</v>
       </c>
       <c r="I9">
-        <v>975</v>
+        <v>996</v>
       </c>
       <c r="J9">
-        <v>2122</v>
+        <v>3634</v>
       </c>
       <c r="K9">
-        <v>6120</v>
+        <v>37918</v>
       </c>
       <c r="L9">
         <v>2769</v>
       </c>
       <c r="M9">
-        <v>4212</v>
+        <v>19202</v>
       </c>
       <c r="N9">
-        <v>733759</v>
+        <v>733960</v>
       </c>
       <c r="O9">
         <v>3678</v>
       </c>
       <c r="P9">
-        <v>733759</v>
+        <v>733960</v>
       </c>
       <c r="Q9">
         <v>3159</v>
       </c>
       <c r="R9">
-        <v>486207588.43</v>
+        <v>486803765.41</v>
       </c>
       <c r="S9">
-        <v>117714.285714286</v>
+        <v>414076.9230769229</v>
       </c>
       <c r="T9">
-        <v>4857.142857142861</v>
+        <v>6192.307692307691</v>
       </c>
       <c r="U9">
-        <v>37000</v>
+        <v>62000</v>
       </c>
       <c r="V9">
         <v>36222</v>
@@ -1157,7 +1157,7 @@
         <v>1379466</v>
       </c>
       <c r="X9">
-        <v>25461</v>
+        <v>25648</v>
       </c>
       <c r="Y9">
         <v>3621826</v>
